--- a/Data setup/QuerySequence.xlsx
+++ b/Data setup/QuerySequence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Consulting\MATTER\Neuropath\python\OMOP\Data setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED90CC0-8192-4294-83AA-B8BEE8FB4087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C56A8F-5303-475D-91B6-C78A44C7E4A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{663AA31B-E7F8-4F10-9CF8-7E2BC849775A}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>node</t>
   </si>
   <si>
-    <t>SELECT s.care_site_id, c.concept_name as care_site_type FROM dbo.care_site s, concept c WHERE</t>
-  </si>
-  <si>
     <t>Person</t>
   </si>
   <si>
@@ -136,6 +133,10 @@
   </si>
   <si>
     <t>index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT s.care_site_id, c.concept_name as care_site_type FROM dbo.care_site s, concept c  WHERE s.place_of_service_concept_id=c.concept_id
+</t>
   </si>
 </sst>
 </file>
@@ -492,20 +493,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFB5198-8D6C-4780-8C43-C7EB61D8CE87}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" style="1" customWidth="1"/>
     <col min="2" max="2" width="112.85546875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="104.85546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -513,7 +516,7 @@
     </row>
     <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -524,7 +527,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -533,12 +536,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -546,56 +549,56 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -603,53 +606,53 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>3</v>
@@ -657,43 +660,43 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
